--- a/git使用方法.xlsx
+++ b/git使用方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16430" windowHeight="9980"/>
+    <workbookView windowWidth="16430" windowHeight="9980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>1.打开git终端</t>
   </si>
@@ -320,6 +320,9 @@
     <t>3）向远程库推送文件git push 别名 分支名</t>
   </si>
   <si>
+    <t>向远程库推送文件时要先将本地文件添加到暂存区，并传到本地仓库</t>
+  </si>
+  <si>
     <t>输入完指令会跳出一个登录窗口，登录即可</t>
   </si>
   <si>
@@ -344,7 +347,55 @@
     <t>克隆完成后自动将远程库地址设置为别名origin</t>
   </si>
   <si>
-    <t>3.邀请加入团队</t>
+    <t>3.删除github缓存</t>
+  </si>
+  <si>
+    <t>4.邀请加入团队</t>
+  </si>
+  <si>
+    <t>向别人的github仓库中push文件时必须加入别人的团队才可。</t>
+  </si>
+  <si>
+    <t>未加入团队则会报错</t>
+  </si>
+  <si>
+    <t>邀请步骤：1）必须先登入管理者的github账号</t>
+  </si>
+  <si>
+    <t>弹出一下对话框，输入想要邀请的人即可</t>
+  </si>
+  <si>
+    <t>点击pending Invite后面的图标复制出链接</t>
+  </si>
+  <si>
+    <t>2）登录被邀请人的github账号</t>
+  </si>
+  <si>
+    <t>把邀请链接复制到网页地址栏，跳转到一下网页</t>
+  </si>
+  <si>
+    <t>点击Accept invitation接受邀请即可加入团队</t>
+  </si>
+  <si>
+    <t>3）被邀请者接受邀请后再次做push操作</t>
+  </si>
+  <si>
+    <t>弹出一下对话框，输入被邀请者账号密码后</t>
+  </si>
+  <si>
+    <t>即可向团队远程仓库成功提交文件</t>
+  </si>
+  <si>
+    <t>5.pull操作（pull相当于先进行fetch操作再进行merge操作）</t>
+  </si>
+  <si>
+    <t>命令git pull 别名 分支名</t>
+  </si>
+  <si>
+    <t>再抓取（fetch）操作执行后，只是将远程库的内容下载到本地，但是工作区中的文件并没有更新。</t>
+  </si>
+  <si>
+    <t>需要进行合并（merge）操作，才能将文件同步到本地</t>
   </si>
 </sst>
 </file>
@@ -6988,13 +7039,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7012,7 +7063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="654050" y="17138650"/>
+          <a:off x="654050" y="17494250"/>
           <a:ext cx="3282950" cy="399415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7155,15 +7206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7180,7 +7231,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="768350" y="7385050"/>
+          <a:off x="774700" y="7804150"/>
           <a:ext cx="4819650" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7198,13 +7249,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7222,7 +7273,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="615950" y="8299450"/>
+          <a:off x="615950" y="8655050"/>
           <a:ext cx="3841750" cy="3556000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7240,13 +7291,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7264,7 +7315,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="615950" y="12160250"/>
+          <a:off x="615950" y="12515850"/>
           <a:ext cx="5441950" cy="1739900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7282,13 +7333,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7298,7 +7349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="641350" y="13557250"/>
+          <a:off x="641350" y="13912850"/>
           <a:ext cx="3143250" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7449,13 +7500,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -7465,7 +7516,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3867150" y="13589000"/>
+          <a:off x="3867150" y="13944600"/>
           <a:ext cx="2311400" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7499,13 +7550,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>399415</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7515,7 +7566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6223000" y="13449300"/>
+          <a:off x="6223000" y="13804900"/>
           <a:ext cx="3320415" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7734,13 +7785,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7758,7 +7809,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="615950" y="14217650"/>
+          <a:off x="615950" y="14573250"/>
           <a:ext cx="8001000" cy="1949450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7776,13 +7827,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7792,7 +7843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3079750" y="17158335"/>
+          <a:off x="3079750" y="17513935"/>
           <a:ext cx="725170" cy="177165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7943,13 +7994,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7967,7 +8018,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="546100" y="17951450"/>
+          <a:off x="546100" y="18307050"/>
           <a:ext cx="8051800" cy="3111500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7985,13 +8036,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>470535</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>170180</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -8001,7 +8052,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="19246850"/>
+          <a:off x="5067300" y="19602450"/>
           <a:ext cx="3328035" cy="303530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8152,13 +8203,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8176,7 +8227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="21558250"/>
+          <a:off x="609600" y="21913850"/>
           <a:ext cx="5219700" cy="1282700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8194,13 +8245,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8218,7 +8269,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="584200" y="22942550"/>
+          <a:off x="584200" y="23298150"/>
           <a:ext cx="3327400" cy="1301750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8236,13 +8287,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8260,8 +8311,2160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="24631650"/>
+          <a:off x="628650" y="24987250"/>
           <a:ext cx="4984750" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="539750" y="27089100"/>
+          <a:ext cx="7499350" cy="6534150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273685</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="33274000"/>
+          <a:ext cx="3328035" cy="303530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="577850" y="27952700"/>
+          <a:ext cx="3150870" cy="582295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="33718500"/>
+          <a:ext cx="6527800" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="37534850"/>
+          <a:ext cx="5353685" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6813550" y="38201600"/>
+          <a:ext cx="558800" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7397750" y="38049200"/>
+          <a:ext cx="1028065" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>点击删除即可</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="40081200"/>
+          <a:ext cx="5111750" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="41363900"/>
+          <a:ext cx="11176000" cy="7092950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="41986200"/>
+          <a:ext cx="1080135" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565785</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2127250" y="43484800"/>
+          <a:ext cx="2096135" cy="380365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475615</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>299085</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8400415" y="46970950"/>
+          <a:ext cx="1042670" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755650" y="48895000"/>
+          <a:ext cx="4140200" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6413500" y="55130700"/>
+          <a:ext cx="173355" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="55854600"/>
+          <a:ext cx="3905250" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="51765200"/>
+          <a:ext cx="7842250" cy="3803650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="57823100"/>
+          <a:ext cx="10972800" cy="6305550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>356235</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441450" y="58127900"/>
+          <a:ext cx="3181985" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227965</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5714365" y="62884050"/>
+          <a:ext cx="1068705" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806450" y="65043050"/>
+          <a:ext cx="5588000" cy="2813050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="68376800"/>
+          <a:ext cx="4743450" cy="1670050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8566,7 +10769,7 @@
   <sheetPr/>
   <dimension ref="A8:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="M309" sqref="M309"/>
     </sheetView>
   </sheetViews>
@@ -9036,13 +11239,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="H402" sqref="H402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -9099,49 +11302,134 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/git使用方法.xlsx
+++ b/git使用方法.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>1.打开git终端</t>
   </si>
@@ -396,6 +396,61 @@
   </si>
   <si>
     <t>需要进行合并（merge）操作，才能将文件同步到本地</t>
+  </si>
+  <si>
+    <t>6.SSH免密登录</t>
+  </si>
+  <si>
+    <t>1)先用终端进入到用户主目录</t>
+  </si>
+  <si>
+    <t>进入C盘右键点击git bash here，输入cd ~</t>
+  </si>
+  <si>
+    <t>2）执行命令，生成一个.ssh目录</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -C 邮箱（C要大写，邮箱时github注册账号对应的邮箱）</t>
+  </si>
+  <si>
+    <t>然后按三次回车</t>
+  </si>
+  <si>
+    <t>生成了.ssh目录</t>
+  </si>
+  <si>
+    <t>3)用笔记本打开id_rsa.pub文件，并复制里面的链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh-rsa AAAAB3NzaC1yc2EAAAADAQABAAABgQDScRAB80TvCHmu6M4zuMRUhN9Dd6VstzGd8T7P678/BvnfTp70WwCYomjxYDYt66pBaB4YoKRhm19NSmx3m4ACHGOOsVz8Q2lZ4QxqJPx+9QJpNyyoMN/2HmAdHUGgbvQ4Qqx2sx70yLHv+Ye3pvCItruhp6INqhhVgHScTosw7+5xGFoHSf13KFw/kLwyKKp+MpT8QeGPdiQrRBu5k9O5dUTrXNXSS0UgoptqIkt8uVtqsjZOiKC92FP9Vujrh87c4oux7dOYbH7rw0bm+tHJYnyhyMWdgj0+Zq3xZfnAVhAJlymka0yio2IXeTR2NfLmBCvf1qukTK8UIVDjItx6e872xOhTLy6W2P/CtfQVROpPFQlSw8yrf2vbBPk372KndRAoa0YtpbZ5If8W74bv/IfCH+/MNuXUw2EZSCOkS2N4ITqysuyiqvwXpmDCGSW4QD35lYRr9qEk7iiBEsnECyBpby+CYY6V7qFRgu1z14edD5DzRmK/eQ4uoXlGuxk= 448705458@qq.com
+</t>
+  </si>
+  <si>
+    <t>4）打开github账号</t>
+  </si>
+  <si>
+    <t>点击头像下的setting</t>
+  </si>
+  <si>
+    <t>把3）中得到的key复制到Key里面</t>
+  </si>
+  <si>
+    <t>添加成功</t>
+  </si>
+  <si>
+    <t>然后就可以使用ssh地址免密登录了</t>
+  </si>
+  <si>
+    <t>5）给ssh地址起一个别名</t>
+  </si>
+  <si>
+    <t>从本地仓库中开启终端,并设置ssh链接的别名</t>
+  </si>
+  <si>
+    <t>查看别名</t>
+  </si>
+  <si>
+    <t>之后使用origin_ssh提交文件时就可以不用输入账号密码了</t>
   </si>
 </sst>
 </file>
@@ -403,8 +458,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -425,13 +480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -439,7 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,15 +516,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,35 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,8 +561,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,14 +615,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -570,19 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,13 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,13 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,61 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +727,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,25 +757,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,32 +837,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,17 +867,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -861,16 +881,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,135 +937,138 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -7037,20 +7095,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="58" name="图片 57"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7063,8 +7121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="654050" y="17494250"/>
-          <a:ext cx="3282950" cy="399415"/>
+          <a:off x="571500" y="104317800"/>
+          <a:ext cx="5295900" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7080,19 +7138,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7105,8 +7163,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1377950"/>
-          <a:ext cx="4845050" cy="825500"/>
+          <a:off x="654050" y="17494250"/>
+          <a:ext cx="3282950" cy="399415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7121,20 +7179,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7147,8 +7205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="603250" y="3511550"/>
-          <a:ext cx="8559800" cy="1143000"/>
+          <a:off x="762000" y="1377950"/>
+          <a:ext cx="4845050" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7163,20 +7221,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7189,8 +7247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="654050" y="5162550"/>
-          <a:ext cx="5683250" cy="1193800"/>
+          <a:off x="603250" y="3511550"/>
+          <a:ext cx="8559800" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7206,19 +7264,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7231,8 +7289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="774700" y="7804150"/>
-          <a:ext cx="4819650" cy="368300"/>
+          <a:off x="654050" y="5162550"/>
+          <a:ext cx="5683250" cy="1193800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7248,19 +7306,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7273,6 +7331,48 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="774700" y="7804150"/>
+          <a:ext cx="4819650" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="615950" y="8655050"/>
           <a:ext cx="3841750" cy="3556000"/>
         </a:xfrm>
@@ -7308,7 +7408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7802,7 +7902,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8011,7 +8111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8220,48 +8320,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="21913850"/>
-          <a:ext cx="5219700" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
@@ -8269,8 +8327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="584200" y="23298150"/>
-          <a:ext cx="3327400" cy="1301750"/>
+          <a:off x="609600" y="21913850"/>
+          <a:ext cx="5219700" cy="1282700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8285,20 +8343,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPr id="18" name="图片 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8311,6 +8369,48 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="584200" y="23298150"/>
+          <a:ext cx="3327400" cy="1301750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="628650" y="24987250"/>
           <a:ext cx="4984750" cy="730250"/>
         </a:xfrm>
@@ -8346,7 +8446,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8722,7 +8822,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9160,7 +9260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9202,7 +9302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9745,7 +9845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9954,7 +10054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9996,7 +10096,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10038,7 +10138,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10414,7 +10514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10456,7 +10556,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10475,6 +10575,1804 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="72517000"/>
+          <a:ext cx="5715000" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2863850" y="73323450"/>
+          <a:ext cx="288290" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="74726800"/>
+          <a:ext cx="5575300" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="75888850"/>
+          <a:ext cx="5365750" cy="3556000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="79889350"/>
+          <a:ext cx="4641850" cy="1212850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="81495900"/>
+          <a:ext cx="6089650" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83534250"/>
+          <a:ext cx="1771650" cy="4845050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="87712550"/>
+          <a:ext cx="840740" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583565</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>517</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="583565" y="88550750"/>
+          <a:ext cx="7950835" cy="3393440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="91211400"/>
+          <a:ext cx="1932940" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351790</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7447915" y="89166700"/>
+          <a:ext cx="828675" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>544</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="92671900"/>
+          <a:ext cx="8216900" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641350" y="97428050"/>
+          <a:ext cx="7975600" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>566</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="744220" y="100780850"/>
+          <a:ext cx="7161530" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>507365</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7212965" y="101276150"/>
+          <a:ext cx="581660" cy="260985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5587365" y="101892100"/>
+          <a:ext cx="226695" cy="153670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258445</xdr:colOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546735" y="104458135"/>
+          <a:ext cx="5198110" cy="159385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>591</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="105232200"/>
+          <a:ext cx="5200650" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="105803700"/>
+          <a:ext cx="4880610" cy="318135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10864,7 +12762,7 @@
       </c>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11239,10 +13137,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C400"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="H402" sqref="H402"/>
+    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
+      <selection activeCell="J599" sqref="J599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -11432,6 +13330,96 @@
         <v>126</v>
       </c>
     </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/git使用方法.xlsx
+++ b/git使用方法.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>1.打开git终端</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>之后使用origin_ssh提交文件时就可以不用输入账号密码了</t>
+  </si>
+  <si>
+    <t>提交文件（第一次提交需要录入一个提示，输入yes即可）</t>
   </si>
 </sst>
 </file>
@@ -458,9 +461,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -473,7 +476,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,7 +560,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,39 +590,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,61 +618,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -625,25 +628,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,31 +706,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,37 +772,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,61 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,6 +819,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -830,15 +883,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,23 +905,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,34 +914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,133 +937,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12230,6 +12233,215 @@
         <a:xfrm>
           <a:off x="603250" y="105803700"/>
           <a:ext cx="4880610" cy="318135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>617</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="107105450"/>
+          <a:ext cx="6273800" cy="2717800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615950" y="108102400"/>
+          <a:ext cx="5617210" cy="147320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13137,10 +13349,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C599"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A576" workbookViewId="0">
-      <selection activeCell="J599" sqref="J599"/>
+    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -13420,6 +13632,11 @@
         <v>144</v>
       </c>
     </row>
+    <row r="601" spans="2:2">
+      <c r="B601" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
